--- a/维管植物标本采集信息记录规范（推荐）.xlsx
+++ b/维管植物标本采集信息记录规范（推荐）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="19860"/>
+    <workbookView windowHeight="19600" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="模版解读" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="228">
   <si>
     <t>*注：黑色字体的字段建议填写，紫色字体的字段可以缺失。</t>
   </si>
@@ -317,25 +317,13 @@
     <t>茎缠绕，金黄色，纤细</t>
   </si>
   <si>
-    <t>果实</t>
-  </si>
-  <si>
-    <t>fruit</t>
-  </si>
-  <si>
-    <t>被子植物果实的描述。</t>
-  </si>
-  <si>
-    <t>蒴果，扁球形</t>
-  </si>
-  <si>
     <t>繁殖体</t>
   </si>
   <si>
     <t>propagulum</t>
   </si>
   <si>
-    <t>种子植物的种子、蕨类植物的各类孢子、珠芽等繁殖体的描述。</t>
+    <t>脱离植株可以长成独立植株的器官，被子植物的果实、种子、蕨类植物的各类孢子、珠芽等繁殖体的描述。</t>
   </si>
   <si>
     <t>种子淡褐色，卵形，表面粗糙</t>
@@ -347,16 +335,7 @@
     <t>root</t>
   </si>
   <si>
-    <t>根的描述。</t>
-  </si>
-  <si>
-    <t>不定根</t>
-  </si>
-  <si>
-    <t>adventitiousRoot</t>
-  </si>
-  <si>
-    <t>由茎、叶发生的根，蕨类植物根系描述时常用。</t>
+    <t>植株体吸收养分的部分，通常为根，也可能是各类假根不定根。</t>
   </si>
   <si>
     <t>多度</t>
@@ -580,7 +559,7 @@
     <t>scientificName</t>
   </si>
   <si>
-    <t>如果不使用上述拆分的学名，可以只使用学名，必须包含命名人。</t>
+    <t>如果不使用上述拆分的学名，可以只使用学名，但必须包含命名人。</t>
   </si>
   <si>
     <t>Cuscuta australis R. Br.；Rhododendron delavayi var. pilostylum K. M. Feng</t>
@@ -780,12 +759,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="49">
     <font>
@@ -961,29 +940,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -992,16 +948,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1015,6 +971,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -1023,8 +1018,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1039,29 +1050,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1075,31 +1071,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1144,7 +1123,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1156,73 +1177,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1240,13 +1195,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1258,19 +1285,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1282,49 +1303,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1347,15 +1326,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1367,6 +1337,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1386,28 +1389,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1423,24 +1415,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1449,148 +1428,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1706,7 +1685,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1718,54 +1697,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
     <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2061,12 +2040,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AT16386"/>
+  <dimension ref="A1:AT16384"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.4"/>
@@ -2634,7 +2613,7 @@
       </c>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" ht="21" spans="2:6">
+    <row r="32" ht="41" spans="2:6">
       <c r="B32" s="21" t="s">
         <v>99</v>
       </c>
@@ -2659,19 +2638,19 @@
       <c r="D33" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="E33" s="17" t="s">
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" ht="62" spans="2:6">
+      <c r="B34" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" ht="21" spans="2:6">
-      <c r="B34" s="21" t="s">
+      <c r="C34" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="D34" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="D34" s="17" t="s">
+      <c r="E34" s="17" t="s">
         <v>109</v>
       </c>
       <c r="F34" s="1"/>
@@ -2686,208 +2665,209 @@
       <c r="D35" s="17" t="s">
         <v>112</v>
       </c>
+      <c r="E35" s="17" t="s">
+        <v>113</v>
+      </c>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" ht="62" spans="2:6">
+    <row r="36" ht="21" spans="2:6">
       <c r="B36" s="21" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F36" s="1"/>
     </row>
     <row r="37" ht="21" spans="2:6">
       <c r="B37" s="21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" ht="21" spans="2:6">
+    <row r="38" ht="41" spans="2:6">
       <c r="B38" s="21" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F38" s="1"/>
     </row>
     <row r="39" ht="21" spans="2:6">
       <c r="B39" s="21" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" ht="41" spans="2:6">
-      <c r="B40" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="C40" s="22" t="s">
+    <row r="40" spans="2:6">
+      <c r="B40" s="21"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="17"/>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" ht="21" spans="1:6">
+      <c r="A41" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="D40" s="17" t="s">
+      <c r="B41" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E40" s="17" t="s">
+      <c r="C41" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="F40" s="1"/>
-    </row>
-    <row r="41" ht="21" spans="2:6">
-      <c r="B41" s="21" t="s">
+      <c r="D41" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="C41" s="22" t="s">
+      <c r="E41" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="D41" s="17" t="s">
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" ht="21" spans="2:6">
+      <c r="B42" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="E41" s="17" t="s">
+      <c r="C42" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="2:6">
-      <c r="B42" s="21"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="17"/>
+      <c r="D42" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>138</v>
+      </c>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" ht="21" spans="1:6">
-      <c r="A43" s="13" t="s">
-        <v>137</v>
-      </c>
+    <row r="43" ht="41" spans="2:6">
       <c r="B43" s="21" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F43" s="1"/>
     </row>
     <row r="44" ht="21" spans="2:6">
       <c r="B44" s="21" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="E44" s="17" t="s">
         <v>145</v>
       </c>
+      <c r="E44" s="37" t="s">
+        <v>146</v>
+      </c>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" ht="41" spans="2:6">
-      <c r="B45" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="C45" s="22" t="s">
+    <row r="45" spans="1:6">
+      <c r="A45" s="30"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="17"/>
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46" ht="21" spans="1:6">
+      <c r="A46" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="D45" s="17" t="s">
+      <c r="B46" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="E45" s="17" t="s">
+      <c r="C46" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="F45" s="1"/>
-    </row>
-    <row r="46" ht="21" spans="2:6">
-      <c r="B46" s="21" t="s">
+      <c r="D46" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="C46" s="22" t="s">
+      <c r="E46" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="D46" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="E46" s="37" t="s">
-        <v>153</v>
-      </c>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="30"/>
+    <row r="47" spans="2:6">
       <c r="B47" s="15"/>
-      <c r="C47" s="29"/>
+      <c r="C47" s="28"/>
       <c r="D47" s="17"/>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" ht="21" spans="1:6">
-      <c r="A48" s="13" t="s">
+    <row r="48" ht="21" spans="2:6">
+      <c r="B48" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="E48" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="F48" s="1"/>
+    </row>
+    <row r="49" ht="21" spans="2:6">
+      <c r="B49" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="C48" s="28" t="s">
+      <c r="C49" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="D48" s="17" t="s">
+      <c r="D49" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="E48" s="17" t="s">
+      <c r="E49" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="F48" s="1"/>
-    </row>
-    <row r="49" spans="2:6">
-      <c r="B49" s="15"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="17"/>
       <c r="F49" s="1"/>
     </row>
     <row r="50" ht="21" spans="2:6">
       <c r="B50" s="21" t="s">
-        <v>2</v>
+        <v>159</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="D50" s="17" t="s">
         <v>160</v>
       </c>
+      <c r="D50" s="32"/>
       <c r="E50" s="17" t="s">
         <v>161</v>
       </c>
@@ -2900,124 +2880,102 @@
       <c r="C51" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="D51" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="E51" s="17" t="s">
-        <v>165</v>
-      </c>
+      <c r="D51" s="32"/>
       <c r="F51" s="1"/>
     </row>
     <row r="52" ht="21" spans="2:6">
       <c r="B52" s="21" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D52" s="32"/>
-      <c r="E52" s="17" t="s">
-        <v>168</v>
-      </c>
       <c r="F52" s="1"/>
     </row>
     <row r="53" ht="21" spans="2:6">
       <c r="B53" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="D53" s="32"/>
+      <c r="E53" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="F53" s="1"/>
+    </row>
+    <row r="54" ht="41" spans="2:6">
+      <c r="B54" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="C53" s="22" t="s">
+      <c r="C54" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="D53" s="32"/>
-      <c r="F53" s="1"/>
-    </row>
-    <row r="54" ht="21" spans="2:6">
-      <c r="B54" s="21" t="s">
+      <c r="D54" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="C54" s="22" t="s">
+      <c r="E54" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="D54" s="32"/>
       <c r="F54" s="1"/>
     </row>
-    <row r="55" ht="21" spans="2:6">
-      <c r="B55" s="21" t="s">
+    <row r="55" spans="2:6">
+      <c r="B55" s="15"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="17"/>
+      <c r="F55" s="1"/>
+    </row>
+    <row r="56" ht="41" spans="2:6">
+      <c r="B56" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="C55" s="22" t="s">
+      <c r="C56" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="D55" s="32"/>
-      <c r="E55" s="17" t="s">
+      <c r="D56" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="F55" s="1"/>
-    </row>
-    <row r="56" ht="41" spans="2:6">
-      <c r="B56" s="15" t="s">
+      <c r="E56" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="C56" s="28" t="s">
+      <c r="F56" s="1"/>
+    </row>
+    <row r="57" ht="21" spans="2:6">
+      <c r="B57" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="D56" s="17" t="s">
+      <c r="C57" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="E56" s="17" t="s">
+      <c r="D57" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="F56" s="1"/>
-    </row>
-    <row r="57" spans="2:6">
-      <c r="B57" s="15"/>
-      <c r="C57" s="28"/>
-      <c r="D57" s="17"/>
+      <c r="E57" s="17" t="s">
+        <v>180</v>
+      </c>
       <c r="F57" s="1"/>
     </row>
-    <row r="58" ht="41" spans="2:6">
+    <row r="58" ht="21" spans="2:6">
       <c r="B58" s="21" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C58" s="22" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D58" s="31" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E58" s="17" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" ht="21" spans="2:6">
-      <c r="B59" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="C59" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="D59" s="31" t="s">
-        <v>186</v>
-      </c>
-      <c r="E59" s="17" t="s">
-        <v>187</v>
-      </c>
+    <row r="59" spans="6:6">
       <c r="F59" s="1"/>
     </row>
-    <row r="60" ht="21" spans="2:6">
-      <c r="B60" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="C60" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="D60" s="31" t="s">
-        <v>190</v>
-      </c>
-      <c r="E60" s="17" t="s">
-        <v>191</v>
-      </c>
+    <row r="60" spans="6:6">
       <c r="F60" s="1"/>
     </row>
     <row r="61" spans="6:6">
@@ -51991,12 +51949,6 @@
     </row>
     <row r="16384" spans="6:6">
       <c r="F16384" s="1"/>
-    </row>
-    <row r="16385" spans="6:6">
-      <c r="F16385" s="1"/>
-    </row>
-    <row r="16386" spans="6:6">
-      <c r="F16386" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -52004,14 +51956,14 @@
     <mergeCell ref="A3:A9"/>
     <mergeCell ref="A11:A15"/>
     <mergeCell ref="A17:A26"/>
-    <mergeCell ref="A28:A41"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="A48:A60"/>
+    <mergeCell ref="A28:A39"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="A46:A58"/>
     <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D51:D55"/>
+    <mergeCell ref="D49:D53"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E46" r:id="rId1" display="https://www.ncbi.nlm.nih.gov/data-hub/genome/GCA_003260385.1"/>
+    <hyperlink ref="E44" r:id="rId1" display="https://www.ncbi.nlm.nih.gov/data-hub/genome/GCA_003260385.1"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -52020,12 +51972,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AR3"/>
+  <dimension ref="A1:AP3"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AD1" sqref="AD$1:AD$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="2"/>
@@ -52048,16 +52000,16 @@
     <col min="23" max="23" width="17.7884615384615" customWidth="1"/>
     <col min="24" max="24" width="14.4230769230769" customWidth="1"/>
     <col min="26" max="26" width="10.7403846153846" customWidth="1"/>
-    <col min="37" max="37" width="17.6923076923077" customWidth="1"/>
-    <col min="38" max="38" width="14.1538461538462" customWidth="1"/>
-    <col min="39" max="39" width="8.80769230769231" customWidth="1"/>
-    <col min="40" max="40" width="12.8461538461538" customWidth="1"/>
-    <col min="42" max="42" width="11.375" customWidth="1"/>
-    <col min="43" max="43" width="14.4134615384615" customWidth="1"/>
-    <col min="44" max="44" width="24.6730769230769" customWidth="1"/>
+    <col min="35" max="35" width="17.6923076923077" customWidth="1"/>
+    <col min="36" max="36" width="14.1538461538462" customWidth="1"/>
+    <col min="37" max="37" width="8.80769230769231" customWidth="1"/>
+    <col min="38" max="38" width="12.8461538461538" customWidth="1"/>
+    <col min="40" max="40" width="11.375" customWidth="1"/>
+    <col min="41" max="41" width="14.4134615384615" customWidth="1"/>
+    <col min="42" max="42" width="24.6730769230769" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:44">
+    <row r="1" s="1" customFormat="1" spans="1:42">
       <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
@@ -52074,22 +52026,22 @@
         <v>22</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="L1" s="9" t="s">
         <v>71</v>
@@ -52152,46 +52104,40 @@
         <v>103</v>
       </c>
       <c r="AF1" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AG1" s="8" t="s">
         <v>110</v>
       </c>
       <c r="AH1" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AI1" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AJ1" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK1" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AL1" s="8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AM1" s="8" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AN1" s="8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AO1" s="8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AP1" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="AQ1" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AR1" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" ht="17" spans="2:41">
+    <row r="2" ht="17" spans="2:39">
       <c r="B2">
         <v>3</v>
       </c>
@@ -52199,22 +52145,22 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G2" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H2" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="I2" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="J2" s="6">
         <v>44196</v>
@@ -52232,7 +52178,7 @@
         <v>30</v>
       </c>
       <c r="Q2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="R2" s="6">
         <v>43977</v>
@@ -52250,63 +52196,63 @@
         <v>62</v>
       </c>
       <c r="W2" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="X2" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="Y2">
         <v>4</v>
       </c>
       <c r="Z2" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="AA2" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="AB2" t="s">
-        <v>201</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>202</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>203</v>
-      </c>
-      <c r="AI2">
+        <v>194</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>195</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>196</v>
+      </c>
+      <c r="AG2">
         <v>20</v>
       </c>
-      <c r="AJ2">
+      <c r="AH2">
         <v>8</v>
       </c>
-      <c r="AN2" t="s">
-        <v>204</v>
-      </c>
-      <c r="AO2" s="5" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="3" spans="2:44">
+      <c r="AL2" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM2" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="2:42">
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="D3" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="E3" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="F3" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="I3" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="J3" s="6">
         <v>44196</v>
@@ -52324,58 +52270,58 @@
         <v>2200</v>
       </c>
       <c r="P3" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="Q3" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="R3" s="6">
         <v>43977</v>
       </c>
       <c r="S3" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="T3" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="U3" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="V3" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="W3" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="X3" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="Y3">
         <v>6</v>
       </c>
       <c r="Z3" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="AA3" t="s">
-        <v>221</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>222</v>
-      </c>
-      <c r="AJ3">
+        <v>214</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>215</v>
+      </c>
+      <c r="AH3">
         <v>1.2</v>
       </c>
-      <c r="AK3" t="s">
-        <v>223</v>
+      <c r="AI3" t="s">
+        <v>216</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>217</v>
       </c>
       <c r="AL3" t="s">
-        <v>224</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>225</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>226</v>
+        <v>218</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -52385,12 +52331,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AV3"/>
+  <dimension ref="A1:AT3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="AH1" sqref="AH$1:AH$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="2"/>
@@ -52412,7 +52358,7 @@
     <col min="30" max="30" width="13.4615384615385" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:48">
+    <row r="1" s="1" customFormat="1" spans="1:46">
       <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
@@ -52429,34 +52375,34 @@
         <v>22</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="J1" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="K1" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="L1" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="J1" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="L1" s="10" t="s">
+      <c r="M1" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="M1" s="8" t="s">
-        <v>180</v>
-      </c>
       <c r="N1" s="8" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="P1" s="9" t="s">
         <v>71</v>
@@ -52519,46 +52465,40 @@
         <v>103</v>
       </c>
       <c r="AJ1" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AK1" s="8" t="s">
         <v>110</v>
       </c>
       <c r="AL1" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AM1" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AN1" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AO1" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AP1" s="8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AQ1" s="8" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AR1" s="8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AS1" s="8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AT1" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="AU1" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AV1" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" ht="17" spans="2:45">
+    <row r="2" ht="17" spans="2:43">
       <c r="B2">
         <v>3</v>
       </c>
@@ -52566,28 +52506,28 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G2" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H2" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="I2" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="L2" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="M2" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="N2" s="6">
         <v>44196</v>
@@ -52606,7 +52546,7 @@
         <v>30</v>
       </c>
       <c r="U2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="V2" s="6">
         <v>43977</v>
@@ -52624,75 +52564,75 @@
         <v>62</v>
       </c>
       <c r="AA2" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="AB2" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="AC2">
         <v>4</v>
       </c>
       <c r="AD2" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="AE2" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="AF2" t="s">
-        <v>201</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>202</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>203</v>
-      </c>
-      <c r="AM2">
+        <v>194</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>195</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>196</v>
+      </c>
+      <c r="AK2">
         <v>20</v>
       </c>
-      <c r="AN2">
+      <c r="AL2">
         <v>8</v>
       </c>
-      <c r="AR2" t="s">
-        <v>204</v>
-      </c>
-      <c r="AS2" s="5" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="3" spans="2:48">
+      <c r="AP2" t="s">
+        <v>197</v>
+      </c>
+      <c r="AQ2" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="2:46">
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="D3" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="E3" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="F3" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="H3" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="I3" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="M3" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="N3" s="6">
         <v>44196</v>
@@ -52711,58 +52651,58 @@
         <v>2200</v>
       </c>
       <c r="T3" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="U3" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="V3" s="6">
         <v>43977</v>
       </c>
       <c r="W3" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="X3" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="Y3" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="Z3" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="AA3" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="AB3" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="AC3">
         <v>6</v>
       </c>
       <c r="AD3" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="AE3" t="s">
-        <v>221</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>222</v>
-      </c>
-      <c r="AN3">
+        <v>214</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>215</v>
+      </c>
+      <c r="AL3">
         <v>1.2</v>
       </c>
-      <c r="AO3" t="s">
-        <v>223</v>
+      <c r="AM3" t="s">
+        <v>216</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>217</v>
       </c>
       <c r="AP3" t="s">
-        <v>224</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>225</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>226</v>
+        <v>218</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -52772,12 +52712,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AR3"/>
+  <dimension ref="A1:AP3"/>
   <sheetViews>
-    <sheetView topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AK7" sqref="AK7"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AF1" sqref="AF$1:AF$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="2"/>
@@ -52804,21 +52744,20 @@
     <col min="25" max="25" width="19.5576923076923" customWidth="1"/>
     <col min="26" max="26" width="12.0192307692308" customWidth="1"/>
     <col min="27" max="27" width="23.875" customWidth="1"/>
-    <col min="31" max="31" width="18.1057692307692" customWidth="1"/>
-    <col min="33" max="33" width="20.0288461538462" customWidth="1"/>
-    <col min="34" max="34" width="15.5480769230769" customWidth="1"/>
-    <col min="36" max="36" width="18.1057692307692" customWidth="1"/>
-    <col min="37" max="37" width="26.3365384615385" customWidth="1"/>
-    <col min="38" max="38" width="18.5865384615385" customWidth="1"/>
-    <col min="39" max="39" width="12.8173076923077" customWidth="1"/>
-    <col min="40" max="40" width="27.7115384615385" customWidth="1"/>
-    <col min="41" max="41" width="24.8365384615385" customWidth="1"/>
-    <col min="42" max="42" width="22.1634615384615" customWidth="1"/>
-    <col min="43" max="43" width="25" customWidth="1"/>
-    <col min="44" max="44" width="24.1923076923077" customWidth="1"/>
+    <col min="30" max="30" width="18.1057692307692" customWidth="1"/>
+    <col min="32" max="32" width="15.5480769230769" customWidth="1"/>
+    <col min="34" max="34" width="18.1057692307692" customWidth="1"/>
+    <col min="35" max="35" width="26.3365384615385" customWidth="1"/>
+    <col min="36" max="36" width="18.5865384615385" customWidth="1"/>
+    <col min="37" max="37" width="12.8173076923077" customWidth="1"/>
+    <col min="38" max="38" width="27.7115384615385" customWidth="1"/>
+    <col min="39" max="39" width="24.8365384615385" customWidth="1"/>
+    <col min="40" max="40" width="22.1634615384615" customWidth="1"/>
+    <col min="41" max="41" width="25" customWidth="1"/>
+    <col min="42" max="42" width="24.1923076923077" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:44">
+    <row r="1" s="1" customFormat="1" spans="1:42">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -52835,22 +52774,22 @@
         <v>23</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>72</v>
@@ -52913,46 +52852,40 @@
         <v>104</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AG1" s="3" t="s">
         <v>111</v>
       </c>
       <c r="AH1" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AI1" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AJ1" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AK1" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AL1" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AM1" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AN1" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AO1" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AP1" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="AQ1" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="AR1" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="17" spans="2:41">
+    <row r="2" customFormat="1" ht="17" spans="2:39">
       <c r="B2">
         <v>3</v>
       </c>
@@ -52960,22 +52893,22 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G2" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H2" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="I2" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="J2" s="6">
         <v>44196</v>
@@ -52994,7 +52927,7 @@
         <v>30</v>
       </c>
       <c r="Q2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="R2" s="6">
         <v>43977</v>
@@ -53012,63 +52945,63 @@
         <v>62</v>
       </c>
       <c r="W2" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="X2" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="Y2">
         <v>4</v>
       </c>
       <c r="Z2" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="AA2" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="AB2" t="s">
-        <v>201</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>202</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>203</v>
-      </c>
-      <c r="AI2">
+        <v>194</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>195</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>196</v>
+      </c>
+      <c r="AG2">
         <v>20</v>
       </c>
-      <c r="AJ2">
+      <c r="AH2">
         <v>8</v>
       </c>
-      <c r="AN2" t="s">
-        <v>204</v>
-      </c>
-      <c r="AO2" s="5" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="3" spans="2:44">
+      <c r="AL2" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM2" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="2:42">
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="D3" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="E3" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="F3" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="I3" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="J3" s="6">
         <v>44196</v>
@@ -53087,58 +53020,58 @@
         <v>2200</v>
       </c>
       <c r="P3" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="Q3" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="R3" s="6">
         <v>43977</v>
       </c>
       <c r="S3" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="T3" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="U3" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="V3" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="W3" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="X3" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="Y3">
         <v>6</v>
       </c>
       <c r="Z3" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="AA3" t="s">
-        <v>221</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>222</v>
-      </c>
-      <c r="AJ3">
+        <v>214</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>215</v>
+      </c>
+      <c r="AH3">
         <v>1.2</v>
       </c>
-      <c r="AK3" t="s">
-        <v>223</v>
+      <c r="AI3" t="s">
+        <v>216</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>217</v>
       </c>
       <c r="AL3" t="s">
-        <v>224</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>225</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>226</v>
+        <v>218</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -53148,12 +53081,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AV3"/>
+  <dimension ref="A1:AT3"/>
   <sheetViews>
-    <sheetView topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AK1" sqref="AK1"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AJ1" sqref="AJ$1:AJ$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="2"/>
@@ -53184,26 +53117,24 @@
     <col min="29" max="29" width="16.8269230769231" customWidth="1"/>
     <col min="30" max="30" width="12.1730769230769" customWidth="1"/>
     <col min="31" max="31" width="22.9134615384615" customWidth="1"/>
-    <col min="34" max="34" width="16.8365384615385" customWidth="1"/>
-    <col min="35" max="35" width="14.7403846153846" customWidth="1"/>
-    <col min="36" max="36" width="16.1826923076923" customWidth="1"/>
-    <col min="37" max="37" width="19.0673076923077" customWidth="1"/>
-    <col min="38" max="38" width="15.7019230769231" customWidth="1"/>
-    <col min="40" max="40" width="17.4711538461538" customWidth="1"/>
-    <col min="41" max="41" width="24.9903846153846" customWidth="1"/>
-    <col min="42" max="42" width="19.3846153846154" customWidth="1"/>
-    <col min="43" max="43" width="15.3365384615385" customWidth="1"/>
-    <col min="44" max="44" width="25.9519230769231" customWidth="1"/>
-    <col min="45" max="45" width="21.4711538461538" customWidth="1"/>
-    <col min="46" max="46" width="24.3365384615385" customWidth="1"/>
-    <col min="47" max="47" width="22.4326923076923" customWidth="1"/>
-    <col min="48" max="48" width="32.8365384615385" customWidth="1"/>
-    <col min="49" max="49" width="23.5" customWidth="1"/>
-    <col min="50" max="50" width="25.1634615384615" customWidth="1"/>
-    <col min="51" max="51" width="19.1634615384615" customWidth="1"/>
+    <col min="34" max="34" width="14.7403846153846" customWidth="1"/>
+    <col min="35" max="35" width="16.1826923076923" customWidth="1"/>
+    <col min="36" max="36" width="15.7019230769231" customWidth="1"/>
+    <col min="38" max="38" width="17.4711538461538" customWidth="1"/>
+    <col min="39" max="39" width="24.9903846153846" customWidth="1"/>
+    <col min="40" max="40" width="19.3846153846154" customWidth="1"/>
+    <col min="41" max="41" width="15.3365384615385" customWidth="1"/>
+    <col min="42" max="42" width="25.9519230769231" customWidth="1"/>
+    <col min="43" max="43" width="21.4711538461538" customWidth="1"/>
+    <col min="44" max="44" width="24.3365384615385" customWidth="1"/>
+    <col min="45" max="45" width="22.4326923076923" customWidth="1"/>
+    <col min="46" max="46" width="32.8365384615385" customWidth="1"/>
+    <col min="47" max="47" width="23.5" customWidth="1"/>
+    <col min="48" max="48" width="25.1634615384615" customWidth="1"/>
+    <col min="49" max="49" width="19.1634615384615" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:48">
+    <row r="1" s="1" customFormat="1" spans="1:46">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -53220,34 +53151,34 @@
         <v>23</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>181</v>
-      </c>
       <c r="N1" s="3" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="P1" s="4" t="s">
         <v>72</v>
@@ -53310,46 +53241,40 @@
         <v>104</v>
       </c>
       <c r="AJ1" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AK1" s="3" t="s">
         <v>111</v>
       </c>
       <c r="AL1" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AM1" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AN1" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AO1" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AP1" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AQ1" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AR1" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AS1" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AT1" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="AU1" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="AV1" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="17" spans="2:45">
+    <row r="2" customFormat="1" ht="17" spans="2:43">
       <c r="B2">
         <v>3</v>
       </c>
@@ -53357,28 +53282,28 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G2" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H2" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="I2" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="L2" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="M2" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="N2" s="6">
         <v>44196</v>
@@ -53397,7 +53322,7 @@
         <v>30</v>
       </c>
       <c r="U2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="V2" s="6">
         <v>43977</v>
@@ -53415,75 +53340,75 @@
         <v>62</v>
       </c>
       <c r="AA2" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="AB2" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="AC2">
         <v>4</v>
       </c>
       <c r="AD2" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="AE2" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="AF2" t="s">
-        <v>201</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>202</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>203</v>
-      </c>
-      <c r="AM2">
+        <v>194</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>195</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>196</v>
+      </c>
+      <c r="AK2">
         <v>20</v>
       </c>
-      <c r="AN2">
+      <c r="AL2">
         <v>8</v>
       </c>
-      <c r="AR2" t="s">
-        <v>204</v>
-      </c>
-      <c r="AS2" s="5" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="3" customFormat="1" spans="2:48">
+      <c r="AP2" t="s">
+        <v>197</v>
+      </c>
+      <c r="AQ2" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="2:46">
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="D3" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="E3" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="F3" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="H3" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="I3" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="M3" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="N3" s="6">
         <v>44196</v>
@@ -53502,58 +53427,58 @@
         <v>2200</v>
       </c>
       <c r="T3" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="U3" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="V3" s="6">
         <v>43977</v>
       </c>
       <c r="W3" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="X3" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="Y3" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="Z3" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="AA3" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="AB3" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="AC3">
         <v>6</v>
       </c>
       <c r="AD3" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="AE3" t="s">
-        <v>221</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>222</v>
-      </c>
-      <c r="AN3">
+        <v>214</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>215</v>
+      </c>
+      <c r="AL3">
         <v>1.2</v>
       </c>
-      <c r="AO3" t="s">
-        <v>223</v>
+      <c r="AM3" t="s">
+        <v>216</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>217</v>
       </c>
       <c r="AP3" t="s">
-        <v>224</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>225</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>226</v>
+        <v>218</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>
